--- a/data/ENV.xlsx
+++ b/data/ENV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aomoda/Documents/credit/credit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96DBAE0-B0D9-404C-94B0-4805100116AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA09513-05CA-0B4F-9615-DFF503B81E34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="219">
   <si>
     <t>一级指标</t>
   </si>
@@ -638,22 +638,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>在管量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托续签量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增客户</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>普租实勘</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>按在岗时间</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -832,9 +816,6 @@
 beta=30,Y_beta =0.9</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>近6个月累计，先求总单数，再转换求得分</t>
   </si>
   <si>
@@ -885,15 +866,26 @@
   </si>
   <si>
     <t>取当月</t>
+  </si>
+  <si>
+    <t>委托续签量</t>
+  </si>
+  <si>
+    <t>新增客户</t>
+  </si>
+  <si>
+    <t>房源新增</t>
+  </si>
+  <si>
+    <t>普租实勘</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1222,9 +1214,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1246,6 +1235,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1259,6 +1251,159 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1274,159 +1419,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1707,17 +1699,17 @@
   <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="I88" sqref="I88:I89"/>
+      <selection pane="bottomRight" activeCell="F52" sqref="F52:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="6" style="2" customWidth="1"/>
@@ -1729,86 +1721,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="99"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="E2" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="I2" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="57" t="s">
+      <c r="H2" s="99" t="s">
+        <v>192</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="94" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="51" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="51"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="102"/>
       <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="58"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="76">
         <v>125</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="93">
         <v>30</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="67" t="s">
         <v>128</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -1817,86 +1809,86 @@
       <c r="H4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="66" t="s">
+      <c r="J4" s="42"/>
+      <c r="K4" s="80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A5" s="59"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="59"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="12">
         <v>15</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="59"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="12">
         <v>20</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="67"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A7" s="59"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="59"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="16" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="12">
         <v>25</v>
       </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="67"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="59"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="16" t="s">
         <v>67</v>
       </c>
       <c r="H8" s="12">
         <v>30</v>
       </c>
-      <c r="I8" s="65"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="67"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1">
-      <c r="A9" s="59"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="67"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="16" t="s">
         <v>9</v>
       </c>
@@ -1915,13 +1907,13 @@
       <c r="I9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="67"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="16" t="s">
         <v>10</v>
       </c>
@@ -1940,12 +1932,12 @@
       <c r="I10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="67"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A11" s="59"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="16" t="s">
         <v>87</v>
       </c>
@@ -1956,10 +1948,10 @@
         <v>50</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H11" s="12">
         <v>1</v>
@@ -1967,22 +1959,22 @@
       <c r="I11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="67"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A12" s="59"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="59" t="s">
+      <c r="A12" s="67"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="58">
         <v>10</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="67" t="s">
         <v>127</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -1991,59 +1983,59 @@
       <c r="H12" s="12">
         <v>5</v>
       </c>
-      <c r="I12" s="64" t="s">
+      <c r="I12" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="67"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="59"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="16" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="12">
         <v>8</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="67"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="59"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="16" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="12">
         <v>10</v>
       </c>
-      <c r="I14" s="70"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="46"/>
-      <c r="K14" s="68"/>
+      <c r="K14" s="82"/>
     </row>
     <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A15" s="59"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="58">
         <v>20</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="67" t="s">
         <v>136</v>
       </c>
       <c r="G15" s="16" t="s">
@@ -2052,82 +2044,82 @@
       <c r="H15" s="12">
         <v>20</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="43"/>
-      <c r="K15" s="71" t="s">
+      <c r="J15" s="42"/>
+      <c r="K15" s="96" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="59"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="16" t="s">
         <v>72</v>
       </c>
       <c r="H16" s="12">
         <v>10</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="72"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="97"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="59"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="59"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="16" t="s">
         <v>16</v>
       </c>
       <c r="H17" s="12">
         <v>0</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="72"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="97"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="59"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="59"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="16" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="12">
         <v>-10</v>
       </c>
-      <c r="I18" s="70"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="46"/>
-      <c r="K18" s="73"/>
+      <c r="K18" s="98"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="77" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="80">
+      <c r="D19" s="87" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" s="69">
         <v>40</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="67" t="s">
         <v>125</v>
       </c>
       <c r="G19" s="21" t="s">
@@ -2140,17 +2132,17 @@
         <v>147</v>
       </c>
       <c r="J19" s="47"/>
-      <c r="K19" s="66" t="s">
+      <c r="K19" s="80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="59"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="21" t="s">
         <v>19</v>
       </c>
@@ -2159,15 +2151,15 @@
       </c>
       <c r="I20" s="84"/>
       <c r="J20" s="48"/>
-      <c r="K20" s="67"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="59"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="21" t="s">
         <v>20</v>
       </c>
@@ -2176,15 +2168,15 @@
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="48"/>
-      <c r="K21" s="67"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="59"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="21" t="s">
         <v>21</v>
       </c>
@@ -2193,15 +2185,15 @@
       </c>
       <c r="I22" s="84"/>
       <c r="J22" s="48"/>
-      <c r="K22" s="67"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="59"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="4" t="s">
         <v>22</v>
       </c>
@@ -2210,15 +2202,15 @@
       </c>
       <c r="I23" s="84"/>
       <c r="J23" s="48"/>
-      <c r="K23" s="67"/>
+      <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="59"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="4" t="s">
         <v>23</v>
       </c>
@@ -2227,15 +2219,15 @@
       </c>
       <c r="I24" s="84"/>
       <c r="J24" s="48"/>
-      <c r="K24" s="67"/>
+      <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="59"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="21" t="s">
         <v>24</v>
       </c>
@@ -2244,34 +2236,34 @@
       </c>
       <c r="I25" s="84"/>
       <c r="J25" s="48"/>
-      <c r="K25" s="68"/>
+      <c r="K25" s="82"/>
     </row>
     <row r="26" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="59"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="19" t="s">
         <v>111</v>
       </c>
       <c r="H26" s="12"/>
-      <c r="I26" s="85"/>
+      <c r="I26" s="91"/>
       <c r="J26" s="49"/>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A27" s="75"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="64">
+      <c r="A27" s="79"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="54">
         <v>60</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="77" t="s">
         <v>124</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -2284,17 +2276,17 @@
         <v>147</v>
       </c>
       <c r="J27" s="47"/>
-      <c r="K27" s="66" t="s">
+      <c r="K27" s="80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="61"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="4" t="s">
         <v>26</v>
       </c>
@@ -2303,15 +2295,15 @@
       </c>
       <c r="I28" s="84"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="67"/>
+      <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="61"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="67"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="77"/>
       <c r="G29" s="21" t="s">
         <v>27</v>
       </c>
@@ -2320,23 +2312,23 @@
       </c>
       <c r="I29" s="84"/>
       <c r="J29" s="48"/>
-      <c r="K29" s="68"/>
+      <c r="K29" s="82"/>
     </row>
     <row r="30" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="60" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="93">
         <v>80</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="85" t="s">
         <v>123</v>
       </c>
       <c r="G30" s="16" t="s">
@@ -2345,38 +2337,38 @@
       <c r="H30" s="12">
         <v>-5</v>
       </c>
-      <c r="I30" s="64" t="s">
+      <c r="I30" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="66" t="s">
+      <c r="J30" s="42"/>
+      <c r="K30" s="80" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="75"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="79"/>
       <c r="G31" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="12">
         <v>-8</v>
       </c>
-      <c r="I31" s="70"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="67"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="61"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="75"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="79"/>
       <c r="G32" s="16" t="s">
         <v>35</v>
       </c>
@@ -2387,15 +2379,15 @@
         <v>147</v>
       </c>
       <c r="J32" s="48"/>
-      <c r="K32" s="67"/>
+      <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="75"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="79"/>
       <c r="G33" s="16" t="s">
         <v>36</v>
       </c>
@@ -2404,15 +2396,15 @@
       </c>
       <c r="I33" s="84"/>
       <c r="J33" s="48"/>
-      <c r="K33" s="67"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="75"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="79"/>
       <c r="G34" s="16" t="s">
         <v>37</v>
       </c>
@@ -2421,21 +2413,21 @@
       </c>
       <c r="I34" s="84"/>
       <c r="J34" s="48"/>
-      <c r="K34" s="67"/>
+      <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="60" t="s">
+      <c r="A35" s="79"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="E35" s="64">
+      <c r="D35" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="54">
         <v>20</v>
       </c>
-      <c r="F35" s="60" t="s">
+      <c r="F35" s="76" t="s">
         <v>122</v>
       </c>
       <c r="G35" s="16" t="s">
@@ -2444,43 +2436,43 @@
       <c r="H35" s="12">
         <v>20</v>
       </c>
-      <c r="I35" s="64" t="s">
+      <c r="I35" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="67"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="61"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="77"/>
       <c r="G36" s="16" t="s">
         <v>74</v>
       </c>
       <c r="H36" s="12">
         <v>10</v>
       </c>
-      <c r="I36" s="70"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="67"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A37" s="75"/>
-      <c r="B37" s="61"/>
-      <c r="C37" s="60" t="s">
+      <c r="A37" s="79"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="64">
+      <c r="E37" s="54">
         <v>20</v>
       </c>
-      <c r="F37" s="60" t="s">
-        <v>182</v>
+      <c r="F37" s="76" t="s">
+        <v>178</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>75</v>
@@ -2488,94 +2480,94 @@
       <c r="H37" s="34">
         <v>20</v>
       </c>
-      <c r="I37" s="64" t="s">
+      <c r="I37" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="67"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A38" s="75"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="61"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="77"/>
       <c r="G38" s="5" t="s">
         <v>86</v>
       </c>
       <c r="H38" s="34">
         <v>10</v>
       </c>
-      <c r="I38" s="65"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="67"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="81"/>
     </row>
     <row r="39" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A39" s="75"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="61"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="77"/>
       <c r="G39" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H39" s="34">
         <v>5</v>
       </c>
-      <c r="I39" s="65"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="67"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="61"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="77"/>
       <c r="G40" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="41">
         <v>-2</v>
       </c>
-      <c r="I40" s="70"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="46"/>
-      <c r="K40" s="68"/>
+      <c r="K40" s="82"/>
     </row>
     <row r="41" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="40">
+      <c r="A41" s="79"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="39">
         <v>0</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="41">
         <v>0</v>
       </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="39"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="38"/>
     </row>
     <row r="42" spans="1:11" ht="26.5" customHeight="1">
-      <c r="A42" s="75"/>
-      <c r="B42" s="61"/>
-      <c r="C42" s="60" t="s">
+      <c r="A42" s="79"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D42" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="64">
+      <c r="E42" s="54">
         <v>60</v>
       </c>
-      <c r="F42" s="60" t="s">
-        <v>172</v>
+      <c r="F42" s="76" t="s">
+        <v>168</v>
       </c>
       <c r="G42" s="34" t="s">
         <v>91</v>
@@ -2583,53 +2575,53 @@
       <c r="H42" s="34">
         <v>0.5</v>
       </c>
-      <c r="I42" s="64" t="s">
+      <c r="I42" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="87" t="s">
+      <c r="J42" s="42"/>
+      <c r="K42" s="63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A43" s="75"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="61"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="35" t="s">
         <v>92</v>
       </c>
       <c r="H43" s="34">
         <v>0.1</v>
       </c>
-      <c r="I43" s="65"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="88"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="64"/>
     </row>
     <row r="44" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A44" s="76"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="61"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="77"/>
       <c r="G44" s="35" t="s">
         <v>93</v>
       </c>
       <c r="H44" s="34">
         <v>0.5</v>
       </c>
-      <c r="I44" s="70"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="46"/>
-      <c r="K44" s="89"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" spans="1:11" ht="34">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="60">
+      <c r="B45" s="76">
         <v>80</v>
       </c>
       <c r="C45" s="18" t="s">
@@ -2642,35 +2634,35 @@
         <v>10</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="37">
-        <v>2</v>
+      <c r="H45" s="44">
+        <v>10</v>
       </c>
       <c r="I45" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="43"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A46" s="61"/>
-      <c r="B46" s="61"/>
-      <c r="C46" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="D46" s="60" t="s">
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="54">
         <v>30</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" s="54" t="s">
         <v>139</v>
       </c>
       <c r="G46" s="16" t="s">
@@ -2679,34 +2671,34 @@
       <c r="H46" s="29">
         <v>5</v>
       </c>
-      <c r="I46" s="64" t="s">
+      <c r="I46" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="J46" s="43"/>
-      <c r="K46" s="87" t="s">
+      <c r="J46" s="42"/>
+      <c r="K46" s="63" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="16" t="s">
         <v>77</v>
       </c>
       <c r="H47" s="29">
         <v>8</v>
       </c>
-      <c r="I47" s="70"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="88"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A48" s="61"/>
-      <c r="B48" s="61"/>
+      <c r="A48" s="77"/>
+      <c r="B48" s="77"/>
       <c r="C48" s="20" t="s">
         <v>99</v>
       </c>
@@ -2725,15 +2717,15 @@
       <c r="H48" s="34">
         <v>10</v>
       </c>
-      <c r="I48" s="64" t="s">
+      <c r="I48" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="J48" s="44"/>
-      <c r="K48" s="88"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A49" s="61"/>
-      <c r="B49" s="61"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="77"/>
       <c r="C49" s="16" t="s">
         <v>47</v>
       </c>
@@ -2752,13 +2744,13 @@
       <c r="H49" s="34">
         <v>10</v>
       </c>
-      <c r="I49" s="70"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="88"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="64"/>
     </row>
     <row r="50" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
       <c r="C50" s="16" t="s">
         <v>82</v>
       </c>
@@ -2784,488 +2776,488 @@
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11" ht="51">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="76" t="s">
         <v>107</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>207</v>
+        <v>170</v>
+      </c>
+      <c r="E51" s="17">
+        <v>35</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G51" s="22"/>
       <c r="H51" s="30">
         <v>10</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J51" s="45" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K51" s="33" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A52" s="59"/>
-      <c r="B52" s="61"/>
-      <c r="C52" s="59" t="s">
+      <c r="A52" s="67"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="64">
+      <c r="E52" s="54">
         <v>10</v>
       </c>
-      <c r="F52" s="64" t="s">
+      <c r="F52" s="54" t="s">
         <v>150</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="100">
+      <c r="H52" s="72">
         <v>5</v>
       </c>
-      <c r="I52" s="64" t="s">
-        <v>200</v>
-      </c>
-      <c r="J52" s="43" t="s">
+      <c r="I52" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="K52" s="56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A53" s="67"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="K53" s="57"/>
+    </row>
+    <row r="54" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A54" s="67"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="57"/>
+    </row>
+    <row r="55" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A55" s="67"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="73"/>
+      <c r="I55" s="55"/>
+      <c r="K55" s="57"/>
+    </row>
+    <row r="56" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A56" s="67"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="74"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="57"/>
+    </row>
+    <row r="57" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A57" s="67"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="54">
+        <v>45</v>
+      </c>
+      <c r="F57" s="76" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="20"/>
+      <c r="H57" s="72">
+        <v>15</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J57" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="K57" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A58" s="67"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="K58" s="57"/>
+    </row>
+    <row r="59" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A59" s="67"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="55"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="57"/>
+    </row>
+    <row r="60" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A60" s="67"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="57"/>
+    </row>
+    <row r="61" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A61" s="67"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="57"/>
+    </row>
+    <row r="62" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A62" s="67"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="75"/>
+    </row>
+    <row r="63" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A63" s="67"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="54">
+        <v>15</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="11"/>
+      <c r="H63" s="72">
+        <v>5</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J63" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="K63" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A64" s="67"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="K64" s="57"/>
+    </row>
+    <row r="65" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A65" s="67"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="79"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="73"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="57"/>
+    </row>
+    <row r="66" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A66" s="67"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="79"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="57"/>
+    </row>
+    <row r="67" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A67" s="67"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="79"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="73"/>
+      <c r="I67" s="55"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="57"/>
+    </row>
+    <row r="68" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A68" s="67"/>
+      <c r="B68" s="77"/>
+      <c r="C68" s="79"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="75"/>
+    </row>
+    <row r="69" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A69" s="67"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="79"/>
+      <c r="D69" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="E69" s="54">
+        <v>45</v>
+      </c>
+      <c r="F69" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G69" s="20"/>
+      <c r="H69" s="72">
+        <v>15</v>
+      </c>
+      <c r="I69" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J69" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="K69" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A70" s="67"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="79"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="K70" s="57"/>
+    </row>
+    <row r="71" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A71" s="67"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="73"/>
+      <c r="I71" s="55"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="57"/>
+    </row>
+    <row r="72" spans="1:11" ht="13.25" customHeight="1">
+      <c r="A72" s="67"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="73"/>
+      <c r="I72" s="55"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="57"/>
+    </row>
+    <row r="73" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A73" s="67"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="74"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="57"/>
+    </row>
+    <row r="74" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A74" s="67"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="54">
+        <v>15</v>
+      </c>
+      <c r="F74" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="G74" s="20"/>
+      <c r="H74" s="72">
+        <v>5</v>
+      </c>
+      <c r="I74" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="J74" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="K74" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A75" s="67"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="K52" s="90" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="61"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="65"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="44" t="s">
-        <v>190</v>
-      </c>
-      <c r="K53" s="91"/>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="101"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="91"/>
-    </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="61"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="101"/>
-      <c r="I55" s="65"/>
-      <c r="K55" s="91"/>
-    </row>
-    <row r="56" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="61"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="65"/>
-      <c r="J56" s="44"/>
-      <c r="K56" s="91"/>
-    </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="64">
-        <v>45</v>
-      </c>
-      <c r="F57" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="100">
-        <v>15</v>
-      </c>
-      <c r="I57" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="K57" s="90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A58" s="59"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="101"/>
-      <c r="I58" s="65"/>
-      <c r="J58" s="44" t="s">
-        <v>189</v>
-      </c>
-      <c r="K58" s="91"/>
-    </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A59" s="59"/>
-      <c r="B59" s="61"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="65"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="91"/>
-    </row>
-    <row r="60" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A60" s="59"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="65"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="91"/>
-    </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="65"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="91"/>
-    </row>
-    <row r="62" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="102"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="92"/>
-    </row>
-    <row r="63" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="64">
-        <v>15</v>
-      </c>
-      <c r="F63" s="64" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="100">
-        <v>5</v>
-      </c>
-      <c r="I63" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="J63" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="K63" s="90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="65"/>
-      <c r="J64" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="K64" s="91"/>
-    </row>
-    <row r="65" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="65"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="91"/>
-    </row>
-    <row r="66" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A66" s="59"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="65"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="91"/>
-    </row>
-    <row r="67" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="75"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="65"/>
-      <c r="J67" s="44"/>
-      <c r="K67" s="91"/>
-    </row>
-    <row r="68" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A68" s="59"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="102"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="92"/>
-    </row>
-    <row r="69" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="75"/>
-      <c r="D69" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="64">
-        <v>45</v>
-      </c>
-      <c r="F69" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="100">
-        <v>15</v>
-      </c>
-      <c r="I69" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="J69" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="K69" s="90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A70" s="59"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="101"/>
-      <c r="I70" s="65"/>
-      <c r="J70" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="K70" s="91"/>
-    </row>
-    <row r="71" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A71" s="59"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="65"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="91"/>
-    </row>
-    <row r="72" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A72" s="59"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="101"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="91"/>
-    </row>
-    <row r="73" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="75"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="102"/>
-      <c r="I73" s="65"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="91"/>
-    </row>
-    <row r="74" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A74" s="59"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="75"/>
-      <c r="D74" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="64">
-        <v>15</v>
-      </c>
-      <c r="F74" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="100">
-        <v>5</v>
-      </c>
-      <c r="I74" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="J74" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="K74" s="90" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="101"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="44" t="s">
-        <v>192</v>
-      </c>
-      <c r="K75" s="91"/>
+      <c r="K75" s="57"/>
     </row>
     <row r="76" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A76" s="59"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
       <c r="G76" s="35"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="91"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="57"/>
     </row>
     <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="59"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
       <c r="G77" s="20"/>
-      <c r="H77" s="101"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="91"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="43"/>
+      <c r="K77" s="57"/>
     </row>
     <row r="78" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A78" s="59"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="75"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="20"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="91"/>
+      <c r="H78" s="74"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="57"/>
     </row>
     <row r="79" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A79" s="59"/>
-      <c r="B79" s="69" t="s">
+      <c r="A79" s="67"/>
+      <c r="B79" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="93" t="s">
+      <c r="C79" s="59" t="s">
         <v>62</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="94">
+      <c r="E79" s="60">
         <v>90</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G79" s="26" t="s">
         <v>51</v>
@@ -3273,26 +3265,26 @@
       <c r="H79" s="32">
         <v>8</v>
       </c>
-      <c r="I79" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="J79" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="K79" s="87" t="s">
+      <c r="I79" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="J79" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K79" s="63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A80" s="59"/>
-      <c r="B80" s="69"/>
-      <c r="C80" s="93"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="59"/>
       <c r="D80" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E80" s="95"/>
+        <v>179</v>
+      </c>
+      <c r="E80" s="61"/>
       <c r="F80" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>50</v>
@@ -3300,13 +3292,13 @@
       <c r="H80" s="34">
         <v>10</v>
       </c>
-      <c r="I80" s="70"/>
-      <c r="J80" s="105"/>
-      <c r="K80" s="88"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="53"/>
+      <c r="K80" s="64"/>
     </row>
     <row r="81" spans="1:11" ht="54" customHeight="1">
-      <c r="A81" s="59"/>
-      <c r="B81" s="69"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="21" t="s">
         <v>64</v>
       </c>
@@ -3317,7 +3309,7 @@
         <v>30</v>
       </c>
       <c r="F81" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>50</v>
@@ -3325,28 +3317,28 @@
       <c r="H81" s="34">
         <v>30</v>
       </c>
-      <c r="I81" s="103" t="s">
-        <v>208</v>
+      <c r="I81" s="51" t="s">
+        <v>203</v>
       </c>
       <c r="J81" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="K81" s="88"/>
+        <v>204</v>
+      </c>
+      <c r="K81" s="64"/>
     </row>
     <row r="82" spans="1:11" ht="60" customHeight="1">
-      <c r="A82" s="59"/>
-      <c r="B82" s="69"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="21" t="s">
         <v>55</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E82" s="21">
         <v>30</v>
       </c>
       <c r="F82" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G82" s="21" t="s">
         <v>78</v>
@@ -3354,22 +3346,22 @@
       <c r="H82" s="34">
         <v>30</v>
       </c>
-      <c r="I82" s="103" t="s">
-        <v>204</v>
+      <c r="I82" s="51" t="s">
+        <v>200</v>
       </c>
       <c r="J82" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="K82" s="89"/>
+        <v>205</v>
+      </c>
+      <c r="K82" s="65"/>
     </row>
     <row r="83" spans="1:11" ht="54" customHeight="1">
-      <c r="A83" s="59"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="93" t="s">
+      <c r="A83" s="67"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E83" s="26">
         <v>10</v>
@@ -3383,20 +3375,20 @@
       <c r="H83" s="28">
         <v>5</v>
       </c>
-      <c r="I83" s="64" t="s">
-        <v>200</v>
+      <c r="I83" s="54" t="s">
+        <v>196</v>
       </c>
       <c r="J83" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K83" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="K83" s="63" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="55" customHeight="1">
-      <c r="A84" s="59"/>
-      <c r="B84" s="69"/>
-      <c r="C84" s="93"/>
+      <c r="A84" s="67"/>
+      <c r="B84" s="58"/>
+      <c r="C84" s="59"/>
       <c r="D84" s="27" t="s">
         <v>155</v>
       </c>
@@ -3412,16 +3404,16 @@
       <c r="H84" s="28">
         <v>5</v>
       </c>
-      <c r="I84" s="65"/>
+      <c r="I84" s="55"/>
       <c r="J84" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="K84" s="88"/>
+        <v>202</v>
+      </c>
+      <c r="K84" s="64"/>
     </row>
     <row r="85" spans="1:11" ht="54" customHeight="1">
-      <c r="A85" s="59"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="93"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="59"/>
       <c r="D85" s="27" t="s">
         <v>80</v>
       </c>
@@ -3437,16 +3429,16 @@
       <c r="H85" s="30">
         <v>5</v>
       </c>
-      <c r="I85" s="65"/>
+      <c r="I85" s="55"/>
       <c r="J85" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="K85" s="88"/>
+        <v>199</v>
+      </c>
+      <c r="K85" s="64"/>
     </row>
     <row r="86" spans="1:11" ht="60" customHeight="1">
-      <c r="A86" s="59"/>
-      <c r="B86" s="69"/>
-      <c r="C86" s="93"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="59"/>
       <c r="D86" s="27" t="s">
         <v>156</v>
       </c>
@@ -3462,16 +3454,16 @@
       <c r="H86" s="30">
         <v>10</v>
       </c>
-      <c r="I86" s="65"/>
+      <c r="I86" s="55"/>
       <c r="J86" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="K86" s="88"/>
+        <v>199</v>
+      </c>
+      <c r="K86" s="64"/>
     </row>
     <row r="87" spans="1:11" ht="55" customHeight="1">
-      <c r="A87" s="59"/>
-      <c r="B87" s="69"/>
-      <c r="C87" s="93"/>
+      <c r="A87" s="67"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="59"/>
       <c r="D87" s="23" t="s">
         <v>157</v>
       </c>
@@ -3487,24 +3479,24 @@
       <c r="H87" s="30">
         <v>5</v>
       </c>
-      <c r="I87" s="65"/>
+      <c r="I87" s="55"/>
       <c r="J87" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="K87" s="88"/>
+        <v>199</v>
+      </c>
+      <c r="K87" s="64"/>
     </row>
     <row r="88" spans="1:11" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A88" s="59"/>
-      <c r="B88" s="69" t="s">
+      <c r="A88" s="67"/>
+      <c r="B88" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="59" t="s">
+      <c r="C88" s="67" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E88" s="80">
+      <c r="E88" s="69">
         <v>60</v>
       </c>
       <c r="F88" s="7" t="s">
@@ -3516,24 +3508,24 @@
       <c r="H88" s="34">
         <v>1</v>
       </c>
-      <c r="I88" s="64" t="s">
-        <v>217</v>
-      </c>
-      <c r="J88" s="104" t="s">
-        <v>218</v>
-      </c>
-      <c r="K88" s="98" t="s">
+      <c r="I88" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="J88" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K88" s="71" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A89" s="59"/>
-      <c r="B89" s="69"/>
-      <c r="C89" s="59"/>
+      <c r="A89" s="67"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="82"/>
+        <v>179</v>
+      </c>
+      <c r="E89" s="70"/>
       <c r="F89" s="21" t="s">
         <v>118</v>
       </c>
@@ -3543,14 +3535,14 @@
       <c r="H89" s="34">
         <v>8</v>
       </c>
-      <c r="I89" s="70"/>
-      <c r="J89" s="105"/>
-      <c r="K89" s="98"/>
+      <c r="I89" s="62"/>
+      <c r="J89" s="53"/>
+      <c r="K89" s="71"/>
     </row>
     <row r="90" spans="1:11" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A90" s="59"/>
-      <c r="B90" s="69"/>
-      <c r="C90" s="59" t="s">
+      <c r="A90" s="67"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="67" t="s">
         <v>160</v>
       </c>
       <c r="D90" s="16" t="s">
@@ -3569,17 +3561,17 @@
         <v>10</v>
       </c>
       <c r="I90" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J90" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K90" s="98"/>
+        <v>208</v>
+      </c>
+      <c r="K90" s="71"/>
     </row>
     <row r="91" spans="1:11" s="1" customFormat="1" ht="56" customHeight="1">
-      <c r="A91" s="59"/>
-      <c r="B91" s="69"/>
-      <c r="C91" s="59"/>
+      <c r="A91" s="67"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="16" t="s">
         <v>53</v>
       </c>
@@ -3596,21 +3588,21 @@
         <v>5</v>
       </c>
       <c r="I91" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J91" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="K91" s="98"/>
+        <v>211</v>
+      </c>
+      <c r="K91" s="71"/>
     </row>
     <row r="92" spans="1:11" s="1" customFormat="1" ht="62" customHeight="1">
-      <c r="A92" s="59"/>
-      <c r="B92" s="69"/>
-      <c r="C92" s="59" t="s">
+      <c r="A92" s="67"/>
+      <c r="B92" s="58"/>
+      <c r="C92" s="67" t="s">
         <v>59</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="E92" s="13">
         <v>40</v>
@@ -3625,21 +3617,21 @@
         <v>40</v>
       </c>
       <c r="I92" s="24" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J92" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="K92" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="K92" s="66" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="1" customFormat="1" ht="49" customHeight="1">
-      <c r="A93" s="59"/>
-      <c r="B93" s="69"/>
-      <c r="C93" s="59"/>
+      <c r="A93" s="67"/>
+      <c r="B93" s="58"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="21" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="E93" s="13">
         <v>20</v>
@@ -3654,27 +3646,27 @@
         <v>20</v>
       </c>
       <c r="I93" s="45" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J93" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K93" s="96"/>
+        <v>210</v>
+      </c>
+      <c r="K93" s="66"/>
     </row>
     <row r="94" spans="1:11" s="1" customFormat="1" ht="58" customHeight="1">
-      <c r="A94" s="59"/>
-      <c r="B94" s="69"/>
-      <c r="C94" s="59" t="s">
+      <c r="A94" s="67"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="67" t="s">
         <v>56</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="E94" s="13">
         <v>30</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G94" s="24" t="s">
         <v>57</v>
@@ -3683,21 +3675,21 @@
         <v>10</v>
       </c>
       <c r="I94" s="25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J94" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="K94" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="K94" s="68" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="1" customFormat="1" ht="56" customHeight="1">
-      <c r="A95" s="59"/>
-      <c r="B95" s="69"/>
-      <c r="C95" s="59"/>
+      <c r="A95" s="67"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="67"/>
       <c r="D95" s="23" t="s">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="E95" s="6">
         <f>5%*200</f>
@@ -3713,19 +3705,19 @@
         <v>5</v>
       </c>
       <c r="I95" s="25" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J95" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="K95" s="97"/>
+        <v>207</v>
+      </c>
+      <c r="K95" s="68"/>
     </row>
     <row r="96" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1">
-      <c r="A96" s="59"/>
-      <c r="B96" s="69"/>
-      <c r="C96" s="59"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="67"/>
       <c r="D96" s="23" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="E96" s="6">
         <f>5%*200</f>
@@ -3741,92 +3733,46 @@
         <v>5</v>
       </c>
       <c r="I96" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J96" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="K96" s="97"/>
+        <v>208</v>
+      </c>
+      <c r="K96" s="68"/>
     </row>
     <row r="97" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="130">
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="K83:K87"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="I83:I87"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="I63:I68"/>
-    <mergeCell ref="K63:K68"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="K69:K73"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="K52:K56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="K57:K62"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="A51:A96"/>
-    <mergeCell ref="B51:B78"/>
-    <mergeCell ref="C52:C62"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="C63:C78"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="K30:K40"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="I4:I8"/>
+    <mergeCell ref="K4:K14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="A19:A44"/>
     <mergeCell ref="B19:B29"/>
     <mergeCell ref="C19:C29"/>
@@ -3851,36 +3797,82 @@
     <mergeCell ref="D42:D44"/>
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="F42:F44"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="K4:K14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="K30:K40"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="K46:K49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A51:A96"/>
+    <mergeCell ref="B51:B78"/>
+    <mergeCell ref="C52:C62"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="C63:C78"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="K63:K68"/>
+    <mergeCell ref="D69:D73"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="K69:K73"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="D57:D62"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="H57:H62"/>
+    <mergeCell ref="H63:H68"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="K83:K87"/>
+    <mergeCell ref="B88:B96"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="K88:K91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="I83:I87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="K74:K78"/>
+    <mergeCell ref="B79:B87"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="K79:K82"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="H74:H78"/>
+    <mergeCell ref="J79:J80"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ENV.xlsx
+++ b/data/ENV.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aomoda/Documents/credit/credit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA09513-05CA-0B4F-9615-DFF503B81E34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65A378-2210-3140-B565-4B030EACAF23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021.5.8" sheetId="52" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021.5.8'!$A$3:$I$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2021.5.8'!$A$3:$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="219">
   <si>
     <t>一级指标</t>
   </si>
@@ -1106,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1259,16 +1259,145 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1277,149 +1406,41 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1696,2183 +1717,2285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="G47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="F52" sqref="F52:F56"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6" style="2" customWidth="1"/>
-    <col min="6" max="7" width="27.1640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="9" customWidth="1"/>
-    <col min="9" max="10" width="30.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6" style="2" customWidth="1"/>
+    <col min="7" max="8" width="27.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="30.6640625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="7.5" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:12" ht="40.5" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:12" ht="32.25" customHeight="1">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="D2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="E2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="F2" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="G2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="H2" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="99" t="s">
+      <c r="I2" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="J2" s="64" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="K2" s="64" t="s">
         <v>183</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="L2" s="66" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="51" customHeight="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="36" t="s">
+    <row r="3" spans="1:12" ht="51" customHeight="1">
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="95"/>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="67"/>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A4" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="76">
+      <c r="B4" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="69">
         <v>125</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="D4" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="E4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="93">
+      <c r="F4" s="72">
         <v>30</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="G4" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="H4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>10</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="J4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="80" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="16" t="s">
+    <row r="5" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>15</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="81"/>
-    </row>
-    <row r="6" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A6" s="67"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="16" t="s">
+      <c r="J5" s="74"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="76"/>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="12">
+      <c r="I6" s="12">
         <v>20</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="81"/>
-    </row>
-    <row r="7" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="16" t="s">
+      <c r="J6" s="74"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="76"/>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="12">
+      <c r="I7" s="12">
         <v>25</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="81"/>
-    </row>
-    <row r="8" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A8" s="67"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="16" t="s">
+      <c r="J7" s="74"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="76"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="12">
+      <c r="I8" s="12">
         <v>30</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="81"/>
-    </row>
-    <row r="9" spans="1:11" ht="54" customHeight="1">
-      <c r="A9" s="67"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="16" t="s">
+      <c r="J8" s="74"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="76"/>
+    </row>
+    <row r="9" spans="1:12" ht="54" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="20">
+      <c r="F9" s="20">
         <v>5</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="G9" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>5</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="J9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="81"/>
-    </row>
-    <row r="10" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A10" s="67"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="16" t="s">
+      <c r="K9" s="43"/>
+      <c r="L9" s="76"/>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="20">
+      <c r="F10" s="20">
         <v>10</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="12">
         <v>5</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="J10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="43"/>
-      <c r="K10" s="81"/>
-    </row>
-    <row r="11" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="16" t="s">
+      <c r="K10" s="43"/>
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="24">
+      <c r="F11" s="24">
         <v>50</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="G11" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="H11" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="12">
+      <c r="I11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="J11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="81"/>
-    </row>
-    <row r="12" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A12" s="67"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="67" t="s">
+      <c r="K11" s="43"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="E12" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="58">
+      <c r="F12" s="78">
         <v>10</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="G12" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="H12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="12">
         <v>5</v>
       </c>
-      <c r="I12" s="54" t="s">
+      <c r="J12" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="43"/>
-      <c r="K12" s="81"/>
-    </row>
-    <row r="13" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="16" t="s">
+      <c r="K12" s="43"/>
+      <c r="L12" s="76"/>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="12">
+      <c r="I13" s="12">
         <v>8</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="81"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A14" s="67"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="16" t="s">
+      <c r="J13" s="74"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="76"/>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="12">
+      <c r="I14" s="12">
         <v>10</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="82"/>
-    </row>
-    <row r="15" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A15" s="67"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="67" t="s">
+      <c r="J14" s="79"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="77"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="E15" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="58">
+      <c r="F15" s="78">
         <v>20</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="G15" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="12">
+      <c r="I15" s="12">
         <v>20</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="J15" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="96" t="s">
+      <c r="K15" s="42"/>
+      <c r="L15" s="80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A16" s="67"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="16" t="s">
+    <row r="16" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="12">
+      <c r="I16" s="12">
         <v>10</v>
       </c>
-      <c r="I16" s="55"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="97"/>
-    </row>
-    <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="67"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="16" t="s">
+      <c r="J16" s="74"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="81"/>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="12">
+      <c r="I17" s="12">
         <v>0</v>
       </c>
-      <c r="I17" s="55"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="97"/>
-    </row>
-    <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="67"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="16" t="s">
+      <c r="J17" s="74"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="81"/>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="12">
+      <c r="I18" s="12">
         <v>-10</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="98"/>
-    </row>
-    <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="85" t="s">
+      <c r="J18" s="79"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="82"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A19" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="D19" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="E19" s="86" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="69">
+      <c r="F19" s="89">
         <v>40</v>
       </c>
-      <c r="F19" s="67" t="s">
+      <c r="G19" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="H19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="12">
+      <c r="I19" s="12">
         <v>-2</v>
       </c>
-      <c r="I19" s="83" t="s">
+      <c r="J19" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="80" t="s">
+      <c r="K19" s="47"/>
+      <c r="L19" s="75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="21" t="s">
+    <row r="20" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A20" s="84"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="12">
+      <c r="I20" s="12">
         <v>-5</v>
       </c>
-      <c r="I20" s="84"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="81"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="79"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="21" t="s">
+      <c r="J20" s="93"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="76"/>
+    </row>
+    <row r="21" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A21" s="84"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="12">
+      <c r="I21" s="12">
         <v>-10</v>
       </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="81"/>
-    </row>
-    <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="79"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="21" t="s">
+      <c r="J21" s="93"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="76"/>
+    </row>
+    <row r="22" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A22" s="84"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="12">
+      <c r="I22" s="12">
         <v>-10</v>
       </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="81"/>
-    </row>
-    <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="79"/>
-      <c r="B23" s="67"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="4" t="s">
+      <c r="J22" s="93"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="76"/>
+    </row>
+    <row r="23" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A23" s="84"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="12">
+      <c r="I23" s="12">
         <v>-10</v>
       </c>
-      <c r="I23" s="84"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="81"/>
-    </row>
-    <row r="24" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A24" s="79"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="4" t="s">
+      <c r="J23" s="93"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="76"/>
+    </row>
+    <row r="24" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A24" s="84"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="12">
+      <c r="I24" s="12">
         <v>-10</v>
       </c>
-      <c r="I24" s="84"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="81"/>
-    </row>
-    <row r="25" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A25" s="79"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="21" t="s">
+      <c r="J24" s="93"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="76"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A25" s="84"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="12">
+      <c r="I25" s="12">
         <v>-20</v>
       </c>
-      <c r="I25" s="84"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="82"/>
-    </row>
-    <row r="26" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A26" s="79"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="19" t="s">
+      <c r="J25" s="93"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="77"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A26" s="84"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A27" s="79"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="76" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A27" s="84"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="54">
+      <c r="F27" s="73">
         <v>60</v>
       </c>
-      <c r="F27" s="77" t="s">
+      <c r="G27" s="70" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="12">
+      <c r="I27" s="12">
         <v>-10</v>
       </c>
-      <c r="I27" s="83" t="s">
+      <c r="J27" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="J27" s="47"/>
-      <c r="K27" s="80" t="s">
+      <c r="K27" s="47"/>
+      <c r="L27" s="75" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A28" s="79"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="4" t="s">
+    <row r="28" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A28" s="84"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="12">
+      <c r="I28" s="12">
         <v>-15</v>
       </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="81"/>
-    </row>
-    <row r="29" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A29" s="79"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="21" t="s">
+      <c r="J28" s="93"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="76"/>
+    </row>
+    <row r="29" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A29" s="84"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="12">
+      <c r="I29" s="12">
         <v>-20</v>
       </c>
-      <c r="I29" s="84"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="82"/>
-    </row>
-    <row r="30" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A30" s="79"/>
-      <c r="B30" s="76" t="s">
+      <c r="J29" s="93"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="77"/>
+    </row>
+    <row r="30" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A30" s="84"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="D30" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="92" t="s">
+      <c r="E30" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="93">
+      <c r="F30" s="72">
         <v>80</v>
       </c>
-      <c r="F30" s="85" t="s">
+      <c r="G30" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="H30" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H30" s="12">
+      <c r="I30" s="12">
         <v>-5</v>
       </c>
-      <c r="I30" s="54" t="s">
+      <c r="J30" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="80" t="s">
+      <c r="K30" s="42"/>
+      <c r="L30" s="75" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A31" s="79"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="16" t="s">
+    <row r="31" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A31" s="84"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="12">
+      <c r="I31" s="12">
         <v>-8</v>
       </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="81"/>
-    </row>
-    <row r="32" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A32" s="79"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="16" t="s">
+      <c r="J31" s="79"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="76"/>
+    </row>
+    <row r="32" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A32" s="84"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="12">
+      <c r="I32" s="12">
         <v>-10</v>
       </c>
-      <c r="I32" s="83" t="s">
+      <c r="J32" s="92" t="s">
         <v>147</v>
       </c>
-      <c r="J32" s="48"/>
-      <c r="K32" s="81"/>
-    </row>
-    <row r="33" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A33" s="79"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="16" t="s">
+      <c r="K32" s="48"/>
+      <c r="L32" s="76"/>
+    </row>
+    <row r="33" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A33" s="84"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="H33" s="12">
+      <c r="I33" s="12">
         <v>-15</v>
       </c>
-      <c r="I33" s="84"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="81"/>
-    </row>
-    <row r="34" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A34" s="79"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="16" t="s">
+      <c r="J33" s="93"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="76"/>
+    </row>
+    <row r="34" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A34" s="84"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H34" s="12">
+      <c r="I34" s="12">
         <v>-20</v>
       </c>
-      <c r="I34" s="84"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="81"/>
-    </row>
-    <row r="35" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A35" s="79"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="76" t="s">
+      <c r="J34" s="93"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="76"/>
+    </row>
+    <row r="35" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A35" s="84"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="E35" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="54">
+      <c r="F35" s="73">
         <v>20</v>
       </c>
-      <c r="F35" s="76" t="s">
+      <c r="G35" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H35" s="12">
+      <c r="I35" s="12">
         <v>20</v>
       </c>
-      <c r="I35" s="54" t="s">
+      <c r="J35" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="81"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A36" s="79"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="16" t="s">
+      <c r="K35" s="43"/>
+      <c r="L35" s="76"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A36" s="84"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="12">
+      <c r="I36" s="12">
         <v>10</v>
       </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="81"/>
-    </row>
-    <row r="37" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A37" s="79"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="76" t="s">
+      <c r="J36" s="79"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="76"/>
+    </row>
+    <row r="37" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A37" s="84"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="E37" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="54">
+      <c r="F37" s="73">
         <v>20</v>
       </c>
-      <c r="F37" s="76" t="s">
+      <c r="G37" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="H37" s="34">
+      <c r="I37" s="34">
         <v>20</v>
       </c>
-      <c r="I37" s="54" t="s">
+      <c r="J37" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="81"/>
-    </row>
-    <row r="38" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A38" s="79"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="5" t="s">
+      <c r="K37" s="43"/>
+      <c r="L37" s="76"/>
+    </row>
+    <row r="38" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A38" s="84"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="34">
+      <c r="I38" s="34">
         <v>10</v>
       </c>
-      <c r="I38" s="55"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="81"/>
-    </row>
-    <row r="39" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A39" s="79"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="5" t="s">
+      <c r="J38" s="74"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="76"/>
+    </row>
+    <row r="39" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A39" s="84"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H39" s="34">
+      <c r="I39" s="34">
         <v>5</v>
       </c>
-      <c r="I39" s="55"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="81"/>
-    </row>
-    <row r="40" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A40" s="79"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="35" t="s">
+      <c r="J39" s="74"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="76"/>
+    </row>
+    <row r="40" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A40" s="84"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="H40" s="41">
+      <c r="I40" s="41">
         <v>-2</v>
       </c>
-      <c r="I40" s="62"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="82"/>
-    </row>
-    <row r="41" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A41" s="79"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="39">
+      <c r="J40" s="79"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="77"/>
+    </row>
+    <row r="41" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A41" s="84"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="39">
         <v>0</v>
       </c>
-      <c r="H41" s="41">
+      <c r="I41" s="41">
         <v>0</v>
       </c>
-      <c r="I41" s="37"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="38"/>
-    </row>
-    <row r="42" spans="1:11" ht="26.5" customHeight="1">
-      <c r="A42" s="79"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="76" t="s">
+      <c r="J41" s="37"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="38"/>
+    </row>
+    <row r="42" spans="1:12" ht="26.5" customHeight="1">
+      <c r="A42" s="84"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="76" t="s">
+      <c r="E42" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="54">
+      <c r="F42" s="73">
         <v>60</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="G42" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="H42" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="34">
+      <c r="I42" s="34">
         <v>0.5</v>
       </c>
-      <c r="I42" s="54" t="s">
+      <c r="J42" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="42"/>
-      <c r="K42" s="63" t="s">
+      <c r="K42" s="42"/>
+      <c r="L42" s="96" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A43" s="79"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="35" t="s">
+    <row r="43" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="H43" s="34">
+      <c r="I43" s="34">
         <v>0.1</v>
       </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="64"/>
-    </row>
-    <row r="44" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A44" s="86"/>
-      <c r="B44" s="78"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="35" t="s">
+      <c r="J43" s="74"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="97"/>
+    </row>
+    <row r="44" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A44" s="85"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H44" s="34">
+      <c r="I44" s="34">
         <v>0.5</v>
       </c>
-      <c r="I44" s="62"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" ht="34">
-      <c r="A45" s="76" t="s">
+      <c r="J44" s="79"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="98"/>
+    </row>
+    <row r="45" spans="1:12" ht="34">
+      <c r="A45" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="53"/>
+      <c r="C45" s="69">
         <v>80</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="D45" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="E45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="17">
+      <c r="F45" s="17">
         <v>10</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="G45" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="H45" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="44">
+      <c r="I45" s="44">
         <v>10</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="J45" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="42"/>
+      <c r="L45" s="33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="76" t="s">
+    <row r="46" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A46" s="70"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="76" t="s">
+      <c r="E46" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="E46" s="54">
+      <c r="F46" s="73">
         <v>30</v>
       </c>
-      <c r="F46" s="54" t="s">
+      <c r="G46" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="H46" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="29">
+      <c r="I46" s="29">
         <v>5</v>
       </c>
-      <c r="I46" s="54" t="s">
+      <c r="J46" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="J46" s="42"/>
-      <c r="K46" s="63" t="s">
+      <c r="K46" s="42"/>
+      <c r="L46" s="96" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="16" t="s">
+    <row r="47" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A47" s="70"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="70"/>
+      <c r="D47" s="71"/>
+      <c r="E47" s="71"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="29">
+      <c r="I47" s="29">
         <v>8</v>
       </c>
-      <c r="I47" s="62"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="64"/>
-    </row>
-    <row r="48" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="20" t="s">
+      <c r="J47" s="79"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="97"/>
+    </row>
+    <row r="48" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A48" s="70"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="E48" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="24">
+      <c r="F48" s="24">
         <v>20</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="G48" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="H48" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="34">
+      <c r="I48" s="34">
         <v>10</v>
       </c>
-      <c r="I48" s="54" t="s">
+      <c r="J48" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="J48" s="43"/>
-      <c r="K48" s="64"/>
-    </row>
-    <row r="49" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="16" t="s">
+      <c r="K48" s="43"/>
+      <c r="L48" s="97"/>
+    </row>
+    <row r="49" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A49" s="70"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="E49" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="24">
+      <c r="F49" s="24">
         <v>10</v>
       </c>
-      <c r="F49" s="16" t="s">
+      <c r="G49" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="H49" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="34">
+      <c r="I49" s="34">
         <v>10</v>
       </c>
-      <c r="I49" s="62"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="64"/>
-    </row>
-    <row r="50" spans="1:11" ht="21.75" customHeight="1">
-      <c r="A50" s="78"/>
-      <c r="B50" s="78"/>
-      <c r="C50" s="16" t="s">
+      <c r="J49" s="79"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="97"/>
+    </row>
+    <row r="50" spans="1:12" ht="21.75" customHeight="1">
+      <c r="A50" s="71"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="71"/>
+      <c r="D50" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="E50" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E50" s="17">
+      <c r="F50" s="17">
         <v>10</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="G50" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="H50" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H50" s="34">
+      <c r="I50" s="34">
         <v>2</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="J50" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="J50" s="45"/>
-      <c r="K50" s="14"/>
-    </row>
-    <row r="51" spans="1:11" ht="51">
-      <c r="A51" s="67" t="s">
+      <c r="K50" s="45"/>
+      <c r="L50" s="14"/>
+    </row>
+    <row r="51" spans="1:12" ht="51">
+      <c r="A51" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="76" t="s">
+      <c r="B51" s="53"/>
+      <c r="C51" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="D51" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="E51" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="17">
+      <c r="F51" s="17">
         <v>35</v>
       </c>
-      <c r="F51" s="17" t="s">
+      <c r="G51" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="30">
+      <c r="H51" s="22"/>
+      <c r="I51" s="30">
         <v>10</v>
       </c>
-      <c r="I51" s="17" t="s">
+      <c r="J51" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="K51" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="L51" s="33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A52" s="67"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="67" t="s">
+    <row r="52" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A52" s="68"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="76" t="s">
+      <c r="E52" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="54">
+      <c r="F52" s="73">
         <v>10</v>
       </c>
-      <c r="F52" s="54" t="s">
+      <c r="G52" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G52" s="20"/>
-      <c r="H52" s="72">
+      <c r="H52" s="20"/>
+      <c r="I52" s="102">
         <v>5</v>
       </c>
-      <c r="I52" s="54" t="s">
+      <c r="J52" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="J52" s="42" t="s">
+      <c r="K52" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="K52" s="56" t="s">
+      <c r="L52" s="99" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A53" s="67"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="43" t="s">
+    <row r="53" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A53" s="68"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="103"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="K53" s="57"/>
-    </row>
-    <row r="54" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="73"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="57"/>
-    </row>
-    <row r="55" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="73"/>
-      <c r="I55" s="55"/>
-      <c r="K55" s="57"/>
-    </row>
-    <row r="56" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="57"/>
-    </row>
-    <row r="57" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A57" s="67"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="76" t="s">
+      <c r="L53" s="100"/>
+    </row>
+    <row r="54" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A54" s="68"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="100"/>
+    </row>
+    <row r="55" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A55" s="68"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="103"/>
+      <c r="J55" s="74"/>
+      <c r="L55" s="100"/>
+    </row>
+    <row r="56" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A56" s="68"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="74"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="100"/>
+    </row>
+    <row r="57" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A57" s="68"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="54">
+      <c r="F57" s="73">
         <v>45</v>
       </c>
-      <c r="F57" s="76" t="s">
+      <c r="G57" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="G57" s="20"/>
-      <c r="H57" s="72">
+      <c r="H57" s="20"/>
+      <c r="I57" s="102">
         <v>15</v>
       </c>
-      <c r="I57" s="54" t="s">
+      <c r="J57" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="J57" s="42" t="s">
+      <c r="K57" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="K57" s="56" t="s">
+      <c r="L57" s="99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="43" t="s">
+    <row r="58" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A58" s="68"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="70"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="103"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="K58" s="57"/>
-    </row>
-    <row r="59" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A59" s="67"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="57"/>
-    </row>
-    <row r="60" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A60" s="67"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="57"/>
-    </row>
-    <row r="61" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A61" s="67"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="57"/>
-    </row>
-    <row r="62" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A62" s="67"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="78"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="74"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="46"/>
-      <c r="K62" s="75"/>
-    </row>
-    <row r="63" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A63" s="67"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="79" t="s">
+      <c r="L58" s="100"/>
+    </row>
+    <row r="59" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A59" s="68"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="100"/>
+    </row>
+    <row r="60" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A60" s="68"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="74"/>
+      <c r="G60" s="70"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="100"/>
+    </row>
+    <row r="61" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A61" s="68"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="103"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="100"/>
+    </row>
+    <row r="62" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A62" s="68"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="70"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="101"/>
+    </row>
+    <row r="63" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A63" s="68"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="70"/>
+      <c r="D63" s="84" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="76" t="s">
+      <c r="E63" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="54">
+      <c r="F63" s="73">
         <v>15</v>
       </c>
-      <c r="F63" s="54" t="s">
+      <c r="G63" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="11"/>
-      <c r="H63" s="72">
+      <c r="H63" s="11"/>
+      <c r="I63" s="102">
         <v>5</v>
       </c>
-      <c r="I63" s="54" t="s">
+      <c r="J63" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="J63" s="42" t="s">
+      <c r="K63" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="K63" s="56" t="s">
+      <c r="L63" s="99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A64" s="67"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="79"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="43" t="s">
+    <row r="64" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A64" s="68"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="K64" s="57"/>
-    </row>
-    <row r="65" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A65" s="67"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="79"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="73"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="57"/>
-    </row>
-    <row r="66" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A66" s="67"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="79"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="73"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="57"/>
-    </row>
-    <row r="67" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A67" s="67"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="79"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="73"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="57"/>
-    </row>
-    <row r="68" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A68" s="67"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="79"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="74"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="75"/>
-    </row>
-    <row r="69" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A69" s="67"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="79"/>
-      <c r="D69" s="76" t="s">
+      <c r="L64" s="100"/>
+    </row>
+    <row r="65" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A65" s="68"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="100"/>
+    </row>
+    <row r="66" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A66" s="68"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="100"/>
+    </row>
+    <row r="67" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A67" s="68"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="70"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="100"/>
+    </row>
+    <row r="68" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A68" s="68"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="79"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="101"/>
+    </row>
+    <row r="69" spans="1:12" ht="13.25" customHeight="1">
+      <c r="A69" s="68"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="54">
+      <c r="F69" s="73">
         <v>45</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="G69" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="72">
+      <c r="H69" s="20"/>
+      <c r="I69" s="102">
         <v>15</v>
       </c>
-      <c r="I69" s="54" t="s">
+      <c r="J69" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="J69" s="42" t="s">
+      <c r="K69" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="K69" s="56" t="s">
+      <c r="L69" s="99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A70" s="67"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="79"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="73"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="43" t="s">
+    <row r="70" spans="1:12" ht="13.25" customHeight="1">
+      <c r="A70" s="68"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="70"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="K70" s="57"/>
-    </row>
-    <row r="71" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A71" s="67"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="73"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="57"/>
-    </row>
-    <row r="72" spans="1:11" ht="13.25" customHeight="1">
-      <c r="A72" s="67"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="79"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="57"/>
-    </row>
-    <row r="73" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A73" s="67"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="74"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="57"/>
-    </row>
-    <row r="74" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A74" s="67"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="79"/>
-      <c r="D74" s="76" t="s">
+      <c r="L70" s="100"/>
+    </row>
+    <row r="71" spans="1:12" ht="13.25" customHeight="1">
+      <c r="A71" s="68"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="74"/>
+      <c r="G71" s="74"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="103"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="100"/>
+    </row>
+    <row r="72" spans="1:12" ht="13.25" customHeight="1">
+      <c r="A72" s="68"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="103"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="100"/>
+    </row>
+    <row r="73" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A73" s="68"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="70"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="104"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="100"/>
+    </row>
+    <row r="74" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A74" s="68"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="54">
+      <c r="F74" s="73">
         <v>15</v>
       </c>
-      <c r="F74" s="54" t="s">
+      <c r="G74" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="G74" s="20"/>
-      <c r="H74" s="72">
+      <c r="H74" s="20"/>
+      <c r="I74" s="102">
         <v>5</v>
       </c>
-      <c r="I74" s="54" t="s">
+      <c r="J74" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="J74" s="42" t="s">
+      <c r="K74" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="K74" s="56" t="s">
+      <c r="L74" s="99" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A75" s="67"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="79"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="43" t="s">
+    <row r="75" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A75" s="68"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="74"/>
+      <c r="G75" s="74"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="103"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="K75" s="57"/>
-    </row>
-    <row r="76" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A76" s="67"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="79"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="57"/>
-    </row>
-    <row r="77" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A77" s="67"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="79"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="57"/>
-    </row>
-    <row r="78" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A78" s="67"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="79"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="74"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="57"/>
-    </row>
-    <row r="79" spans="1:11" ht="44.25" customHeight="1">
-      <c r="A79" s="67"/>
-      <c r="B79" s="58" t="s">
+      <c r="L75" s="100"/>
+    </row>
+    <row r="76" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A76" s="68"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="74"/>
+      <c r="G76" s="74"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="100"/>
+    </row>
+    <row r="77" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A77" s="68"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="100"/>
+    </row>
+    <row r="78" spans="1:12" ht="13.5" customHeight="1">
+      <c r="A78" s="68"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="70"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="74"/>
+      <c r="G78" s="74"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="104"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="100"/>
+    </row>
+    <row r="79" spans="1:12" ht="44.25" customHeight="1">
+      <c r="A79" s="68"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="D79" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="E79" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="E79" s="60">
+      <c r="F79" s="110">
         <v>90</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="G79" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="H79" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="H79" s="32">
+      <c r="I79" s="32">
         <v>8</v>
       </c>
-      <c r="I79" s="54" t="s">
+      <c r="J79" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="J79" s="52" t="s">
+      <c r="K79" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="K79" s="63" t="s">
+      <c r="L79" s="96" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A80" s="67"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="23" t="s">
+    <row r="80" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A80" s="68"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="78"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="E80" s="61"/>
-      <c r="F80" s="21" t="s">
+      <c r="F80" s="111"/>
+      <c r="G80" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="G80" s="21" t="s">
+      <c r="H80" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H80" s="34">
+      <c r="I80" s="34">
         <v>10</v>
       </c>
-      <c r="I80" s="62"/>
-      <c r="J80" s="53"/>
-      <c r="K80" s="64"/>
-    </row>
-    <row r="81" spans="1:11" ht="54" customHeight="1">
-      <c r="A81" s="67"/>
-      <c r="B81" s="58"/>
-      <c r="C81" s="21" t="s">
+      <c r="J80" s="79"/>
+      <c r="K80" s="109"/>
+      <c r="L80" s="97"/>
+    </row>
+    <row r="81" spans="1:12" ht="54" customHeight="1">
+      <c r="A81" s="68"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="E81" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E81" s="21">
+      <c r="F81" s="21">
         <v>30</v>
       </c>
-      <c r="F81" s="21" t="s">
+      <c r="G81" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G81" s="21" t="s">
+      <c r="H81" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H81" s="34">
+      <c r="I81" s="34">
         <v>30</v>
       </c>
-      <c r="I81" s="51" t="s">
+      <c r="J81" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="J81" s="15" t="s">
+      <c r="K81" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="K81" s="64"/>
-    </row>
-    <row r="82" spans="1:11" ht="60" customHeight="1">
-      <c r="A82" s="67"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="21" t="s">
+      <c r="L81" s="97"/>
+    </row>
+    <row r="82" spans="1:12" ht="60" customHeight="1">
+      <c r="A82" s="68"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="78"/>
+      <c r="D82" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="E82" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="E82" s="21">
+      <c r="F82" s="21">
         <v>30</v>
       </c>
-      <c r="F82" s="21" t="s">
+      <c r="G82" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="G82" s="21" t="s">
+      <c r="H82" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H82" s="34">
+      <c r="I82" s="34">
         <v>30</v>
       </c>
-      <c r="I82" s="51" t="s">
+      <c r="J82" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="J82" s="15" t="s">
+      <c r="K82" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="K82" s="65"/>
-    </row>
-    <row r="83" spans="1:11" ht="54" customHeight="1">
-      <c r="A83" s="67"/>
-      <c r="B83" s="58"/>
-      <c r="C83" s="59" t="s">
+      <c r="L82" s="98"/>
+    </row>
+    <row r="83" spans="1:12" ht="54" customHeight="1">
+      <c r="A83" s="68"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="27" t="s">
+      <c r="E83" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E83" s="26">
+      <c r="F83" s="26">
         <v>10</v>
       </c>
-      <c r="F83" s="26" t="s">
+      <c r="G83" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="G83" s="21" t="s">
+      <c r="H83" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H83" s="28">
+      <c r="I83" s="28">
         <v>5</v>
       </c>
-      <c r="I83" s="54" t="s">
+      <c r="J83" s="73" t="s">
         <v>196</v>
       </c>
-      <c r="J83" s="15" t="s">
+      <c r="K83" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="K83" s="63" t="s">
+      <c r="L83" s="96" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="55" customHeight="1">
-      <c r="A84" s="67"/>
-      <c r="B84" s="58"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="27" t="s">
+    <row r="84" spans="1:12" ht="55" customHeight="1">
+      <c r="A84" s="68"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E84" s="26">
+      <c r="F84" s="26">
         <v>10</v>
       </c>
-      <c r="F84" s="26" t="s">
+      <c r="G84" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="G84" s="21" t="s">
+      <c r="H84" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H84" s="28">
+      <c r="I84" s="28">
         <v>5</v>
       </c>
-      <c r="I84" s="55"/>
-      <c r="J84" s="15" t="s">
+      <c r="J84" s="74"/>
+      <c r="K84" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="K84" s="64"/>
-    </row>
-    <row r="85" spans="1:11" ht="54" customHeight="1">
-      <c r="A85" s="67"/>
-      <c r="B85" s="58"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="27" t="s">
+      <c r="L84" s="97"/>
+    </row>
+    <row r="85" spans="1:12" ht="54" customHeight="1">
+      <c r="A85" s="68"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="78"/>
+      <c r="D85" s="106"/>
+      <c r="E85" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E85" s="26">
+      <c r="F85" s="26">
         <v>10</v>
       </c>
-      <c r="F85" s="26" t="s">
+      <c r="G85" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="G85" s="21" t="s">
+      <c r="H85" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H85" s="30">
+      <c r="I85" s="30">
         <v>5</v>
       </c>
-      <c r="I85" s="55"/>
-      <c r="J85" s="15" t="s">
+      <c r="J85" s="74"/>
+      <c r="K85" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K85" s="64"/>
-    </row>
-    <row r="86" spans="1:11" ht="60" customHeight="1">
-      <c r="A86" s="67"/>
-      <c r="B86" s="58"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="27" t="s">
+      <c r="L85" s="97"/>
+    </row>
+    <row r="86" spans="1:12" ht="60" customHeight="1">
+      <c r="A86" s="68"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="78"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="E86" s="26">
+      <c r="F86" s="26">
         <v>20</v>
       </c>
-      <c r="F86" s="26" t="s">
+      <c r="G86" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="G86" s="21" t="s">
+      <c r="H86" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H86" s="30">
+      <c r="I86" s="30">
         <v>10</v>
       </c>
-      <c r="I86" s="55"/>
-      <c r="J86" s="15" t="s">
+      <c r="J86" s="74"/>
+      <c r="K86" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K86" s="64"/>
-    </row>
-    <row r="87" spans="1:11" ht="55" customHeight="1">
-      <c r="A87" s="67"/>
-      <c r="B87" s="58"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="23" t="s">
+      <c r="L86" s="97"/>
+    </row>
+    <row r="87" spans="1:12" ht="55" customHeight="1">
+      <c r="A87" s="68"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="E87" s="21">
+      <c r="F87" s="21">
         <v>10</v>
       </c>
-      <c r="F87" s="21" t="s">
+      <c r="G87" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="G87" s="21" t="s">
+      <c r="H87" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H87" s="30">
+      <c r="I87" s="30">
         <v>5</v>
       </c>
-      <c r="I87" s="55"/>
-      <c r="J87" s="15" t="s">
+      <c r="J87" s="74"/>
+      <c r="K87" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="K87" s="64"/>
-    </row>
-    <row r="88" spans="1:11" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="A88" s="67"/>
-      <c r="B88" s="58" t="s">
+      <c r="L87" s="97"/>
+    </row>
+    <row r="88" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="A88" s="68"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="C88" s="67" t="s">
+      <c r="D88" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="D88" s="16" t="s">
+      <c r="E88" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E88" s="69">
+      <c r="F88" s="89">
         <v>60</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G88" s="21" t="s">
+      <c r="H88" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H88" s="34">
+      <c r="I88" s="34">
         <v>1</v>
       </c>
-      <c r="I88" s="54" t="s">
+      <c r="J88" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="J88" s="52" t="s">
+      <c r="K88" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="K88" s="71" t="s">
+      <c r="L88" s="107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A89" s="67"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="21" t="s">
+    <row r="89" spans="1:12" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A89" s="68"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="78"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="70"/>
-      <c r="F89" s="21" t="s">
+      <c r="F89" s="91"/>
+      <c r="G89" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="G89" s="21" t="s">
+      <c r="H89" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H89" s="34">
+      <c r="I89" s="34">
         <v>8</v>
       </c>
-      <c r="I89" s="62"/>
-      <c r="J89" s="53"/>
-      <c r="K89" s="71"/>
-    </row>
-    <row r="90" spans="1:11" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A90" s="67"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="67" t="s">
+      <c r="J89" s="79"/>
+      <c r="K89" s="109"/>
+      <c r="L89" s="107"/>
+    </row>
+    <row r="90" spans="1:12" s="1" customFormat="1" ht="51" customHeight="1">
+      <c r="A90" s="68"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="78"/>
+      <c r="D90" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="16" t="s">
+      <c r="E90" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="E90" s="6">
+      <c r="F90" s="6">
         <v>30</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="G90" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G90" s="24" t="s">
+      <c r="H90" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H90" s="35">
+      <c r="I90" s="35">
         <v>10</v>
       </c>
-      <c r="I90" s="15" t="s">
+      <c r="J90" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="J90" s="15" t="s">
+      <c r="K90" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="K90" s="71"/>
-    </row>
-    <row r="91" spans="1:11" s="1" customFormat="1" ht="56" customHeight="1">
-      <c r="A91" s="67"/>
-      <c r="B91" s="58"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="16" t="s">
+      <c r="L90" s="107"/>
+    </row>
+    <row r="91" spans="1:12" s="1" customFormat="1" ht="56" customHeight="1">
+      <c r="A91" s="68"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="78"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E91" s="6">
+      <c r="F91" s="6">
         <v>10</v>
       </c>
-      <c r="F91" s="16" t="s">
+      <c r="G91" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="G91" s="24" t="s">
+      <c r="H91" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="H91" s="35">
+      <c r="I91" s="35">
         <v>5</v>
       </c>
-      <c r="I91" s="15" t="s">
+      <c r="J91" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="J91" s="15" t="s">
+      <c r="K91" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="K91" s="71"/>
-    </row>
-    <row r="92" spans="1:11" s="1" customFormat="1" ht="62" customHeight="1">
-      <c r="A92" s="67"/>
-      <c r="B92" s="58"/>
-      <c r="C92" s="67" t="s">
+      <c r="L91" s="107"/>
+    </row>
+    <row r="92" spans="1:12" s="1" customFormat="1" ht="62" customHeight="1">
+      <c r="A92" s="68"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="78"/>
+      <c r="D92" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="E92" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="13">
+      <c r="F92" s="13">
         <v>40</v>
       </c>
-      <c r="F92" s="24" t="s">
+      <c r="G92" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="G92" s="24" t="s">
+      <c r="H92" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H92" s="35">
+      <c r="I92" s="35">
         <v>40</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="J92" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="J92" s="15" t="s">
+      <c r="K92" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="K92" s="66" t="s">
+      <c r="L92" s="112" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="1" customFormat="1" ht="49" customHeight="1">
-      <c r="A93" s="67"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="21" t="s">
+    <row r="93" spans="1:12" s="1" customFormat="1" ht="49" customHeight="1">
+      <c r="A93" s="68"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="E93" s="13">
+      <c r="F93" s="13">
         <v>20</v>
       </c>
-      <c r="F93" s="23" t="s">
+      <c r="G93" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G93" s="24" t="s">
+      <c r="H93" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H93" s="35">
+      <c r="I93" s="35">
         <v>20</v>
       </c>
-      <c r="I93" s="45" t="s">
+      <c r="J93" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="J93" s="15" t="s">
+      <c r="K93" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="K93" s="66"/>
-    </row>
-    <row r="94" spans="1:11" s="1" customFormat="1" ht="58" customHeight="1">
-      <c r="A94" s="67"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="67" t="s">
+      <c r="L93" s="112"/>
+    </row>
+    <row r="94" spans="1:12" s="1" customFormat="1" ht="58" customHeight="1">
+      <c r="A94" s="68"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D94" s="23" t="s">
+      <c r="E94" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="E94" s="13">
+      <c r="F94" s="13">
         <v>30</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="G94" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G94" s="24" t="s">
+      <c r="H94" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H94" s="30">
+      <c r="I94" s="30">
         <v>10</v>
       </c>
-      <c r="I94" s="25" t="s">
+      <c r="J94" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="J94" s="15" t="s">
+      <c r="K94" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="K94" s="68" t="s">
+      <c r="L94" s="105" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="1" customFormat="1" ht="56" customHeight="1">
-      <c r="A95" s="67"/>
-      <c r="B95" s="58"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="23" t="s">
+    <row r="95" spans="1:12" s="1" customFormat="1" ht="56" customHeight="1">
+      <c r="A95" s="68"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="E95" s="6">
+      <c r="F95" s="6">
         <f>5%*200</f>
         <v>10</v>
       </c>
-      <c r="F95" s="16" t="s">
+      <c r="G95" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="H95" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H95" s="30">
+      <c r="I95" s="30">
         <v>5</v>
       </c>
-      <c r="I95" s="25" t="s">
+      <c r="J95" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="J95" s="15" t="s">
+      <c r="K95" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="K95" s="68"/>
-    </row>
-    <row r="96" spans="1:11" s="1" customFormat="1" ht="48" customHeight="1">
-      <c r="A96" s="67"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="23" t="s">
+      <c r="L95" s="105"/>
+    </row>
+    <row r="96" spans="1:12" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A96" s="68"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="E96" s="6">
+      <c r="F96" s="6">
         <f>5%*200</f>
         <v>10</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="G96" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G96" s="24" t="s">
+      <c r="H96" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H96" s="30">
+      <c r="I96" s="30">
         <v>5</v>
       </c>
-      <c r="I96" s="15" t="s">
+      <c r="J96" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="J96" s="15" t="s">
+      <c r="K96" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="K96" s="68"/>
+      <c r="L96" s="105"/>
     </row>
     <row r="97" ht="18.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="130">
-    <mergeCell ref="A1:I1"/>
+  <mergeCells count="132">
+    <mergeCell ref="B4:B18"/>
+    <mergeCell ref="J74:J78"/>
+    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="C79:C87"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="L79:L82"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="I74:I78"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L94:L96"/>
+    <mergeCell ref="D83:D87"/>
+    <mergeCell ref="L83:L87"/>
+    <mergeCell ref="C88:C96"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="L88:L91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="J83:J87"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="J63:J68"/>
+    <mergeCell ref="L63:L68"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="J69:J73"/>
+    <mergeCell ref="L69:L73"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="E57:E62"/>
+    <mergeCell ref="F57:F62"/>
+    <mergeCell ref="G57:G62"/>
+    <mergeCell ref="J57:J62"/>
+    <mergeCell ref="L57:L62"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="I57:I62"/>
+    <mergeCell ref="I63:I68"/>
+    <mergeCell ref="I69:I73"/>
+    <mergeCell ref="A51:A96"/>
+    <mergeCell ref="C51:C78"/>
+    <mergeCell ref="D52:D62"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="D63:D78"/>
+    <mergeCell ref="E63:E68"/>
+    <mergeCell ref="F63:F68"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="E74:E78"/>
+    <mergeCell ref="F74:F78"/>
+    <mergeCell ref="G74:G78"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="L30:L40"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="L42:L44"/>
+    <mergeCell ref="G37:G41"/>
+    <mergeCell ref="F37:F41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A19:A44"/>
+    <mergeCell ref="C19:C29"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="E19:E26"/>
+    <mergeCell ref="F19:F26"/>
+    <mergeCell ref="G19:G26"/>
+    <mergeCell ref="J19:J26"/>
+    <mergeCell ref="L19:L25"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="C30:C44"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J37:J40"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="C4:C18"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="L4:L14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="B4:B18"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="I4:I8"/>
-    <mergeCell ref="K4:K14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A19:A44"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="C19:C29"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="E19:E26"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="B30:B44"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="F30:F34"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I37:I40"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="K30:K40"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="F37:F41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="K46:K49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A51:A96"/>
-    <mergeCell ref="B51:B78"/>
-    <mergeCell ref="C52:C62"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="C63:C78"/>
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="E63:E68"/>
-    <mergeCell ref="F63:F68"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="E74:E78"/>
-    <mergeCell ref="F74:F78"/>
-    <mergeCell ref="I63:I68"/>
-    <mergeCell ref="K63:K68"/>
-    <mergeCell ref="D69:D73"/>
-    <mergeCell ref="E69:E73"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="I69:I73"/>
-    <mergeCell ref="K69:K73"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="K52:K56"/>
-    <mergeCell ref="D57:D62"/>
-    <mergeCell ref="E57:E62"/>
-    <mergeCell ref="F57:F62"/>
-    <mergeCell ref="I57:I62"/>
-    <mergeCell ref="K57:K62"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="H57:H62"/>
-    <mergeCell ref="H63:H68"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="K83:K87"/>
-    <mergeCell ref="B88:B96"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="K88:K91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="I83:I87"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="I74:I78"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="B79:B87"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="K79:K82"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="H74:H78"/>
-    <mergeCell ref="J79:J80"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
